--- a/Mikrotik-rtr/doc/microtik-rtr.xlsx
+++ b/Mikrotik-rtr/doc/microtik-rtr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>SFP1</t>
   </si>
@@ -132,6 +132,60 @@
   </si>
   <si>
     <t>назначение</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>внешний интерфейс TMG</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>IP Cam</t>
+  </si>
+  <si>
+    <t>камеры через каскадный свич</t>
+  </si>
+  <si>
+    <t>VOIP</t>
+  </si>
+  <si>
+    <t>IP PBX за роутером</t>
+  </si>
+  <si>
+    <t>DVR 1</t>
+  </si>
+  <si>
+    <t>HP 1410</t>
+  </si>
+  <si>
+    <t>доставка wlan2-Guest в локальную сеть офиса</t>
+  </si>
+  <si>
+    <t>основной провайдер</t>
+  </si>
+  <si>
+    <t>оптика через конвертер</t>
+  </si>
+  <si>
+    <t>резервный провайдер</t>
+  </si>
+  <si>
+    <t>через WiFi мост</t>
+  </si>
+  <si>
+    <t>10.10.1.63</t>
+  </si>
+  <si>
+    <t>DVR 2</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
   </si>
 </sst>
 </file>
@@ -226,23 +280,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:N11"/>
+  <dimension ref="A3:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +594,9 @@
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -637,19 +696,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
@@ -663,26 +722,26 @@
         <v>25</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -690,23 +749,23 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -730,9 +789,67 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -743,6 +860,6 @@
     <mergeCell ref="H7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mikrotik-rtr/doc/microtik-rtr.xlsx
+++ b/Mikrotik-rtr/doc/microtik-rtr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>SFP1</t>
   </si>
@@ -152,47 +152,50 @@
     <t>VOIP</t>
   </si>
   <si>
-    <t>IP PBX за роутером</t>
+    <t>HP 1410</t>
+  </si>
+  <si>
+    <t>доставка wlan2-Guest в локальную сеть офиса</t>
+  </si>
+  <si>
+    <t>оптика через конвертер</t>
+  </si>
+  <si>
+    <t>через WiFi мост</t>
+  </si>
+  <si>
+    <t>10.10.1.63</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
+  </si>
+  <si>
+    <t>http://192.168.1.50:8890/</t>
+  </si>
+  <si>
+    <t>VOIP FreePBX за роутером</t>
+  </si>
+  <si>
+    <t>основной провайдер Формула 7</t>
+  </si>
+  <si>
+    <t>резервный провайдер Андерс Телеком</t>
   </si>
   <si>
     <t>DVR 1</t>
   </si>
   <si>
-    <t>HP 1410</t>
-  </si>
-  <si>
-    <t>доставка wlan2-Guest в локальную сеть офиса</t>
-  </si>
-  <si>
-    <t>основной провайдер</t>
-  </si>
-  <si>
-    <t>оптика через конвертер</t>
-  </si>
-  <si>
-    <t>резервный провайдер</t>
-  </si>
-  <si>
-    <t>через WiFi мост</t>
-  </si>
-  <si>
-    <t>10.10.1.63</t>
-  </si>
-  <si>
     <t>DVR 2</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>192.168.1.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +206,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -277,10 +289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -288,6 +301,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,11 +314,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:N12"/>
+  <dimension ref="A3:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,12 +711,12 @@
         <v>19</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
@@ -722,12 +737,12 @@
         <v>25</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
@@ -749,21 +764,21 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
@@ -788,67 +803,75 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -859,7 +882,10 @@
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:L7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>